--- a/medicine/Psychotrope/Roberto_de_Jesús_Escobar_Gaviria/Roberto_de_Jesús_Escobar_Gaviria.xlsx
+++ b/medicine/Psychotrope/Roberto_de_Jesús_Escobar_Gaviria/Roberto_de_Jesús_Escobar_Gaviria.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Roberto_de_Jes%C3%BAs_Escobar_Gaviria</t>
+          <t>Roberto_de_Jesús_Escobar_Gaviria</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Roberto de Jesús Escobar Gaviria, né le 13 janvier 1947), surnommé El Osito (petit ours), est le frère du défunt pilier de la drogue, Pablo Escobar, ancien comptable et cofondateur du cartel de Medellín. 
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Roberto_de_Jes%C3%BAs_Escobar_Gaviria</t>
+          <t>Roberto_de_Jesús_Escobar_Gaviria</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Pour sa part dans les opérations du cartel de Medellín, Roberto Escobar a été emprisonné. Il s'est échappé avec son frère en juillet 1992 mais s'est rendu aux autorités un an plus tard. Le 18 décembre 1993, alors qu'il était toujours en prison, il a été aveuglé d'un œil par une lettre piégée. Après plus de 10 ans, il a été libéré.
 En 2014, il a fondé Escobar Inc avec Olof K. Gustafsson et a enregistré les droits de Successeur d’intérêt[Quoi ?] pour son frère en Californie, aux États-Unis. Le 1er juillet 2016, il a envoyé une lettre à Netflix concernant la série télévisée Narcos exigeant un milliard de dollars de paiement pour une utilisation non autorisée du contenu. En janvier 2019, il a lancé une collecte de fonds GoFundMe dans le but de destituer le président Donald Trump.
